--- a/Stimuli/block2_stim_path.xlsx
+++ b/Stimuli/block2_stim_path.xlsx
@@ -1,17 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>corrAns</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor27.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor33.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor32.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor26.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor30.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor24.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor25.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor31.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor35.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor21.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor34.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor22.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor36.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor37.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor23.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target39.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target38.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target28.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target29.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor40.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target27.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target33.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target32.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target26.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target30.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target24.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target25.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target31.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target35.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target21.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target34.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target22.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target36.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target37.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target23.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor39.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor38.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor28.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor29.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target40.jpg</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,6 +181,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -65,74 +197,6 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -433,413 +497,329 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>corrAns</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor27.jpg</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor33.jpg</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor32.jpg</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor26.jpg</t>
-        </is>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor30.jpg</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor24.jpg</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor25.jpg</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor31.jpg</t>
-        </is>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor35.jpg</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor21.jpg</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor34.jpg</t>
-        </is>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor22.jpg</t>
-        </is>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor36.jpg</t>
-        </is>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor37.jpg</t>
-        </is>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor23.jpg</t>
-        </is>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target39.jpg</t>
-        </is>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target38.jpg</t>
-        </is>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target28.jpg</t>
-        </is>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target29.jpg</t>
-        </is>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor40.jpg</t>
-        </is>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target27.jpg</t>
-        </is>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target33.jpg</t>
-        </is>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target32.jpg</t>
-        </is>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target26.jpg</t>
-        </is>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target30.jpg</t>
-        </is>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target24.jpg</t>
-        </is>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target25.jpg</t>
-        </is>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target31.jpg</t>
-        </is>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target35.jpg</t>
-        </is>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target21.jpg</t>
-        </is>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target34.jpg</t>
-        </is>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target22.jpg</t>
-        </is>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target36.jpg</t>
-        </is>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target37.jpg</t>
-        </is>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target23.jpg</t>
-        </is>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor39.jpg</t>
-        </is>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor38.jpg</t>
-        </is>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor28.jpg</t>
-        </is>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor29.jpg</t>
-        </is>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target40.jpg</t>
-        </is>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>

--- a/Stimuli/block2_stim_path.xlsx
+++ b/Stimuli/block2_stim_path.xlsx
@@ -1,148 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>corrAns</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor27.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor33.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor32.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor26.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor30.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor24.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor25.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor31.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor35.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor21.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor34.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor22.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor36.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor37.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor23.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target39.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target38.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target28.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target29.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor40.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target27.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target33.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target32.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target26.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target30.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target24.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target25.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target31.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target35.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target21.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target34.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target22.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target36.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target37.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target23.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor39.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor38.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor28.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor29.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target40.jpg</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -181,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -197,6 +65,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -489,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,331 +433,815 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>corrAns</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target59.jpg</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target65.jpg</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target71.jpg</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target70.jpg</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target64.jpg</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target58.jpg</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target72.jpg</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target66.jpg</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target67.jpg</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target73.jpg</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target77.jpg</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target63.jpg</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target62.jpg</t>
+        </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target76.jpg</t>
+        </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target60.jpg</t>
+        </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target74.jpg</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target48.jpg</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target49.jpg</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target75.jpg</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target61.jpg</t>
+        </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor44.jpg</t>
+        </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor50.jpg</t>
+        </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor78.jpg</t>
+        </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor79.jpg</t>
+        </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor51.jpg</t>
+        </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor45.jpg</t>
+        </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor53.jpg</t>
+        </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor47.jpg</t>
+        </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor46.jpg</t>
+        </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor52.jpg</t>
+        </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor56.jpg</t>
+        </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor42.jpg</t>
+        </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor43.jpg</t>
+        </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor57.jpg</t>
+        </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor80.jpg</t>
+        </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor69.jpg</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor41.jpg</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor55.jpg</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor54.jpg</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor68.jpg</t>
+        </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor65.jpg</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor71.jpg</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor59.jpg</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor58.jpg</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor70.jpg</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor64.jpg</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor72.jpg</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor66.jpg</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor67.jpg</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor73.jpg</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor77.jpg</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor63.jpg</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor62.jpg</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor76.jpg</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor48.jpg</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor60.jpg</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor74.jpg</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor75.jpg</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor61.jpg</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor49.jpg</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target78.jpg</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target44.jpg</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target50.jpg</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target51.jpg</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target45.jpg</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target79.jpg</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target53.jpg</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target47.jpg</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target46.jpg</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target52.jpg</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target56.jpg</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target42.jpg</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target43.jpg</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target57.jpg</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target80.jpg</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target41.jpg</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target55.jpg</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target69.jpg</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target68.jpg</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target54.jpg</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Stimuli/block2_stim_path.xlsx
+++ b/Stimuli/block2_stim_path.xlsx
@@ -1,17 +1,268 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>corrAns</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target59.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target65.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target71.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target70.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target64.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target58.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target72.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target66.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target67.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target73.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target77.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target63.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target62.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target76.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target60.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target74.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target48.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target49.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target75.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target61.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor44.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor50.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor78.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor79.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor51.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor45.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor53.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor47.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor46.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor52.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor56.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor42.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor43.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor57.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor80.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor69.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor41.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor55.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor54.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor68.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor65.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor71.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor59.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor58.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor70.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor64.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor72.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor66.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor67.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor73.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor77.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor63.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor62.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor76.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor48.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor60.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor74.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor75.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor61.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor49.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target78.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target44.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target50.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target51.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target45.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target79.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target53.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target47.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target46.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target52.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target56.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target42.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target43.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target57.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target80.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target41.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target55.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target69.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target68.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target54.jpg</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,6 +301,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -65,74 +317,6 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -433,813 +617,649 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>corrAns</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target59.jpg</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target65.jpg</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target71.jpg</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target70.jpg</t>
-        </is>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target64.jpg</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target58.jpg</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target72.jpg</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target66.jpg</t>
-        </is>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target67.jpg</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target73.jpg</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target77.jpg</t>
-        </is>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target63.jpg</t>
-        </is>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target62.jpg</t>
-        </is>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target76.jpg</t>
-        </is>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target60.jpg</t>
-        </is>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target74.jpg</t>
-        </is>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target48.jpg</t>
-        </is>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target49.jpg</t>
-        </is>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target75.jpg</t>
-        </is>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target61.jpg</t>
-        </is>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor44.jpg</t>
-        </is>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor50.jpg</t>
-        </is>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor78.jpg</t>
-        </is>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor79.jpg</t>
-        </is>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor51.jpg</t>
-        </is>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor45.jpg</t>
-        </is>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor53.jpg</t>
-        </is>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor47.jpg</t>
-        </is>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor46.jpg</t>
-        </is>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor52.jpg</t>
-        </is>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor56.jpg</t>
-        </is>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor42.jpg</t>
-        </is>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor43.jpg</t>
-        </is>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor57.jpg</t>
-        </is>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor80.jpg</t>
-        </is>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor69.jpg</t>
-        </is>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor41.jpg</t>
-        </is>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor55.jpg</t>
-        </is>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor54.jpg</t>
-        </is>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor68.jpg</t>
-        </is>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor65.jpg</t>
-        </is>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor71.jpg</t>
-        </is>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor59.jpg</t>
-        </is>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor58.jpg</t>
-        </is>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor70.jpg</t>
-        </is>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor64.jpg</t>
-        </is>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor72.jpg</t>
-        </is>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor66.jpg</t>
-        </is>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor67.jpg</t>
-        </is>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor73.jpg</t>
-        </is>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor77.jpg</t>
-        </is>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor63.jpg</t>
-        </is>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor62.jpg</t>
-        </is>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor76.jpg</t>
-        </is>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor48.jpg</t>
-        </is>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor60.jpg</t>
-        </is>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor74.jpg</t>
-        </is>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor75.jpg</t>
-        </is>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor61.jpg</t>
-        </is>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor49.jpg</t>
-        </is>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target78.jpg</t>
-        </is>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target44.jpg</t>
-        </is>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target50.jpg</t>
-        </is>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target51.jpg</t>
-        </is>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target45.jpg</t>
-        </is>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target79.jpg</t>
-        </is>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target53.jpg</t>
-        </is>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target47.jpg</t>
-        </is>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target46.jpg</t>
-        </is>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target52.jpg</t>
-        </is>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target56.jpg</t>
-        </is>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target42.jpg</t>
-        </is>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target43.jpg</t>
-        </is>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target57.jpg</t>
-        </is>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target80.jpg</t>
-        </is>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target41.jpg</t>
-        </is>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target55.jpg</t>
-        </is>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target69.jpg</t>
-        </is>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target68.jpg</t>
-        </is>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target54.jpg</t>
-        </is>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>

--- a/Stimuli/block2_stim_path.xlsx
+++ b/Stimuli/block2_stim_path.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>image</t>
   </si>
@@ -41,6 +41,9 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target58.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target99.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target72.jpg</t>
   </si>
   <si>
@@ -53,6 +56,12 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target73.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target98.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target88.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target77.jpg</t>
   </si>
   <si>
@@ -65,6 +74,9 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target76.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target89.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target60.jpg</t>
   </si>
   <si>
@@ -83,6 +95,12 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target61.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor87.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor93.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor44.jpg</t>
   </si>
   <si>
@@ -92,6 +110,12 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor78.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target100.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target101.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor79.jpg</t>
   </si>
   <si>
@@ -101,24 +125,60 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor45.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor92.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor86.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor90.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor84.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor53.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor47.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target103.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target102.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor46.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor52.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor85.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor91.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor95.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor81.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor56.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor42.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target106.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target107.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor43.jpg</t>
   </si>
   <si>
@@ -128,6 +188,15 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor80.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor94.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor82.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor96.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor69.jpg</t>
   </si>
   <si>
@@ -137,12 +206,27 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor55.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target105.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target104.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor54.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor68.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor97.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor83.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor104.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor65.jpg</t>
   </si>
   <si>
@@ -161,6 +245,15 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor64.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor105.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor107.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor99.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor72.jpg</t>
   </si>
   <si>
@@ -173,6 +266,18 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor73.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor106.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor98.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor88.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor102.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor77.jpg</t>
   </si>
   <si>
@@ -185,6 +290,15 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor76.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor103.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor89.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor101.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor48.jpg</t>
   </si>
   <si>
@@ -203,6 +317,15 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor49.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor100.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target87.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target93.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target78.jpg</t>
   </si>
   <si>
@@ -221,6 +344,18 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target79.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target92.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target86.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target90.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target84.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target53.jpg</t>
   </si>
   <si>
@@ -233,6 +368,18 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target52.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target85.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target91.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target95.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target81.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target56.jpg</t>
   </si>
   <si>
@@ -248,6 +395,15 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target80.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target94.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target82.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target96.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target41.jpg</t>
   </si>
   <si>
@@ -261,6 +417,12 @@
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target54.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target97.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target83.jpg</t>
   </si>
 </sst>
 </file>
@@ -609,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,7 +952,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -798,7 +960,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -806,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -814,7 +976,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -862,7 +1024,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -870,7 +1032,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -950,7 +1112,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -958,7 +1120,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1030,7 +1192,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1038,7 +1200,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1110,7 +1272,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1134,7 +1296,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1142,7 +1304,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1150,7 +1312,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1158,7 +1320,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1166,7 +1328,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1174,7 +1336,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1182,7 +1344,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1190,7 +1352,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1198,7 +1360,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1206,7 +1368,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1214,7 +1376,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1222,7 +1384,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1230,7 +1392,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1238,7 +1400,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1246,7 +1408,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1254,7 +1416,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1262,6 +1424,438 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Stimuli/block2_stim_path.xlsx
+++ b/Stimuli/block2_stim_path.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>image</t>
   </si>
@@ -23,406 +23,484 @@
     <t>corrAns</t>
   </si>
   <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target59.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target65.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target71.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target70.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target64.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target58.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target99.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target72.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target66.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target67.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target73.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target98.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target88.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target77.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target63.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target62.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target76.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target89.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target60.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target74.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target48.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target49.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target75.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target61.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor87.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor93.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor44.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor50.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor78.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target100.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target101.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor79.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor51.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor45.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor92.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor86.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor90.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor84.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor53.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor47.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target103.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target102.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor46.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor52.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor85.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor91.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor95.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor81.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor56.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor42.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target106.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target107.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor43.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor57.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor80.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor94.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor82.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor96.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor69.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor41.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor55.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target105.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target104.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor54.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor68.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor97.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor83.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor104.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor65.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor71.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor59.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor58.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor70.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor64.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor105.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor107.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor99.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor72.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor66.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor67.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor73.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor106.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor98.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor88.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor102.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor77.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor63.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor62.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor76.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor103.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor89.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor101.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor48.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor60.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor74.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor75.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor61.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor49.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/distractor100.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target87.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target93.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target78.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target44.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target50.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target51.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target45.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target79.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target92.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target86.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target90.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target84.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target53.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target47.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target46.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target52.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target85.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target91.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target95.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target81.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target56.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target42.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target43.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target57.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target80.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target94.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target82.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target96.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target41.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target55.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target69.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target68.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target54.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target97.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block2/target83.jpg</t>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor146.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor152.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor153.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor147.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor151.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor145.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target99.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target160.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target148.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target149.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target98.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor144.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor150.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor154.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor140.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target88.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target159.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target158.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target89.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor141.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor155.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor143.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor157.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor156.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor142.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor87.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor119.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor93.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor125.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor131.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target100.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target114.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target128.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target129.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target115.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target101.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor130.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor124.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor92.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor86.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor118.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor90.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor84.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor132.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor126.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target117.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target103.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target102.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target116.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor127.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor133.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor85.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor91.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor137.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor123.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor95.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor81.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target112.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target106.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target107.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target113.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor94.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor122.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor136.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor120.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor134.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor82.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor96.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor108.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target139.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target105.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target111.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target110.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target104.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target138.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor97.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor109.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor83.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor135.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor121.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor138.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor104.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor110.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target121.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target135.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target109.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target108.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target134.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target120.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor111.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor105.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor139.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor113.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor107.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor99.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target136.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target122.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target123.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target137.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor106.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor98.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor112.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor116.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor88.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor102.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target133.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target127.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target126.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target132.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor103.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor117.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor89.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor101.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor115.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor129.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target118.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target124.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target130.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target131.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target125.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target119.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor128.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor114.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor100.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target87.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target93.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target142.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target156.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target157.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target143.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target92.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target86.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor158.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target90.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target84.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target155.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target141.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target140.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target154.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target85.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target91.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor159.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor149.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target95.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target81.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target150.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target144.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target145.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target151.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target94.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor148.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/distractor160.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target82.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target96.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target147.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target153.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target152.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target146.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target97.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block2/target83.jpg</t>
   </si>
 </sst>
 </file>
@@ -771,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -800,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -808,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -816,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -824,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -832,7 +910,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -880,7 +958,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -888,7 +966,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -896,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -904,7 +982,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -944,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -952,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -960,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -968,7 +1046,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -976,7 +1054,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1024,7 +1102,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1040,7 +1118,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1048,7 +1126,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1056,7 +1134,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1064,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1072,7 +1150,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1112,7 +1190,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1120,7 +1198,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1152,7 +1230,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1160,7 +1238,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1168,7 +1246,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1176,7 +1254,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1192,7 +1270,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1200,7 +1278,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1248,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1256,7 +1334,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1264,7 +1342,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1272,7 +1350,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1280,7 +1358,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1288,7 +1366,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1344,7 +1422,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1352,7 +1430,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1360,7 +1438,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1368,7 +1446,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1376,7 +1454,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1384,7 +1462,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1456,7 +1534,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1464,7 +1542,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1472,7 +1550,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1480,7 +1558,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1488,7 +1566,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1496,7 +1574,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1552,7 +1630,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1560,7 +1638,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1568,7 +1646,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1576,7 +1654,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1584,7 +1662,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1592,7 +1670,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1600,7 +1678,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1608,7 +1686,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1616,7 +1694,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1624,7 +1702,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1664,7 +1742,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1672,7 +1750,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1680,7 +1758,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1688,7 +1766,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1696,7 +1774,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1704,7 +1782,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1760,7 +1838,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1768,7 +1846,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1776,7 +1854,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1848,7 +1926,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1856,6 +1934,214 @@
         <v>135</v>
       </c>
       <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Stimuli/block2_stim_path.xlsx
+++ b/Stimuli/block2_stim_path.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
   <si>
     <t>image</t>
   </si>
@@ -23,604 +23,1504 @@
     <t>corrAns</t>
   </si>
   <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor146.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor152.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor185.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor191.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target188.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target163.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target177.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target176.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target162.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target189.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor190.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor184.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target200.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor153.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor147.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor179.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor151.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor145.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor192.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor186.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target174.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target160.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target148.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target149.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target161.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target175.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor187.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor193.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor144.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor150.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor178.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor154.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor140.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor168.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor197.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor183.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target159.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target171.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target165.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target164.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target170.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target158.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor182.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor196.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor169.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor141.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor155.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor143.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor157.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor180.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor194.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target199.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target166.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target172.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target173.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target167.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target198.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor195.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor181.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor156.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor142.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor119.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor125.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor131.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target114.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target128.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target129.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target115.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target101.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor130.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor124.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor118.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor132.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor126.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target117.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target103.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target102.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target116.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor127.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor133.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor137.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor123.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target112.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target106.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target107.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target113.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor122.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor136.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor120.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor134.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor108.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target139.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target105.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target111.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target110.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target104.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target138.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor109.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor135.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor121.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor138.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor104.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor110.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target121.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target135.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target109.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target108.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target134.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target120.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor111.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor105.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor139.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor113.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor107.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target136.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target122.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target123.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target137.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor106.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor112.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor116.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor102.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target133.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target127.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target126.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target132.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor103.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor117.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor101.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor115.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor129.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target118.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target124.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target130.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target131.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target125.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target119.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor128.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor114.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor167.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor173.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor198.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target181.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target195.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target142.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target156.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target157.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target143.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target194.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target180.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor199.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor172.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor166.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor158.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor170.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor164.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target196.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target182.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target155.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target141.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target169.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target168.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target140.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target154.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target183.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target197.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor165.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor171.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor159.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor175.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor161.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor149.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target193.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target187.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target178.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target150.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target144.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target145.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target151.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target179.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target186.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target192.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor148.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor160.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor174.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor162.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor176.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor189.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor200.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target184.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target190.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target147.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target153.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target152.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target146.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target191.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target185.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor188.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor177.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor163.jpg</t>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor378.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor422.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor344.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor350.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor436.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor387.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor393.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target361.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target407.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target413.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target375.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target349.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target348.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target412.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target374.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target360.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target406.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor392.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor386.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor351.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor437.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor423.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor345.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor379.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor409.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor435.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor353.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor347.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor421.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor390.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor384.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target389.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target376.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target410.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target404.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target362.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target438.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target439.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target405.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target363.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target377.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target411.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target388.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor385.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor391.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor346.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor420.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor434.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor352.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor408.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor356.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor430.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor424.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor342.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor418.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor395.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor381.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target398.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target429.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target415.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target373.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target367.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target401.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target366.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target400.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target414.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target372.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target428.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target399.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor380.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor394.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor419.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor425.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor343.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor357.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor431.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor341.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor427.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor433.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor355.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor369.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor382.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor396.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target358.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target402.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target364.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target370.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target416.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target371.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target417.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target403.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target365.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target359.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor397.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor383.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor368.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor432.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor354.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor340.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor426.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor469.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor327.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor441.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor455.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor333.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor482.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor496.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target289.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target276.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target262.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target464.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target302.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target316.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target470.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target458.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor253.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor290.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor284.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor285.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor291.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor252.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target459.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target317.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target471.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target465.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target303.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target263.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target277.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target288.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor497.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor483.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor454.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor332.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor326.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor440.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor468.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor318.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor330.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor456.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor442.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor324.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor495.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor481.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target261.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target275.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target498.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target473.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target315.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target301.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target467.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target329.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor278.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor287.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor293.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor292.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor286.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor251.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor279.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target328.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target300.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target466.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target472.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target314.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target499.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target274.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target260.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor480.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor494.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor443.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor325.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor331.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor457.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor319.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor453.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor335.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor321.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor447.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor309.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor490.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor484.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target258.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target264.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target270.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target489.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target338.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target310.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target476.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target462.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target304.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor255.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor269.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor282.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor296.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor297.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor283.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor268.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor254.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target463.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target305.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target311.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target477.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target339.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target488.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target271.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target265.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target259.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor485.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor491.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor308.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor320.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor446.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor452.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor334.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor444.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor322.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor336.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor450.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor478.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor487.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor493.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target298.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target273.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target267.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target449.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target307.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target461.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target475.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target313.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor256.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor295.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor281.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor280.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor294.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor257.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target474.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target312.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target306.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target460.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target448.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target500.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target266.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target272.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target299.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor492.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor486.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor479.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor337.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor451.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor445.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor323.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor448.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor306.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor460.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor474.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor312.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target294.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target280.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target257.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target486.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target492.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target445.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target323.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target337.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target451.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target479.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor272.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor500.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor266.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor299.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor298.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor267.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor273.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target478.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target336.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target450.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target444.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target322.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target493.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target487.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target256.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target281.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target295.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor475.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor313.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor307.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor461.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor449.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor339.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor311.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor477.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor463.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor305.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor488.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target283.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target297.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target254.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target268.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target491.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target485.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target452.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target334.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target320.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target446.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target308.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor259.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor265.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor271.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor270.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor264.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor258.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target309.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target321.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target447.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target453.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target335.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target484.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target490.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target269.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target255.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target296.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target282.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor489.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor462.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor304.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor310.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor476.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor338.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor472.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor314.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor300.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor466.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor328.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor499.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target286.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target292.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target279.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target251.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target494.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target480.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target319.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target331.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target457.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target443.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target325.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor260.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor274.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor275.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor261.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target442.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target324.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target330.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target456.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target318.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target481.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target495.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target278.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target293.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target287.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor498.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor329.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor301.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor467.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor473.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor315.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor465.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor303.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor317.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor471.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor459.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target291.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target285.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target252.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target483.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target497.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target468.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target326.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target440.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target454.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target332.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor277.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor263.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor288.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor289.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor262.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor276.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target455.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target333.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target327.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target441.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target469.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target496.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target482.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target253.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target284.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target290.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor458.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor316.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor470.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor464.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor302.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor359.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor403.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor365.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor371.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor417.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target383.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target397.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target340.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target426.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target432.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target354.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target368.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target369.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target433.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target355.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target341.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target427.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target396.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target382.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor370.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor416.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor402.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor364.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor358.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor428.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor414.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor372.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor366.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor400.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor399.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target394.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target380.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target357.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target431.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target425.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target343.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target419.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target418.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target424.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target342.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target356.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target430.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target381.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target395.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor398.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor367.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor401.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor415.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor373.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor429.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor377.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor411.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor405.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor363.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor439.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor388.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target391.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target385.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target408.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target434.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target352.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target346.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target420.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target347.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target421.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target435.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target353.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target409.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target384.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target390.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor389.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor438.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor404.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor362.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor376.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor410.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor360.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor406.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor412.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor374.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor348.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target386.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target392.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target379.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target423.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target345.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target351.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target437.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target350.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target436.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target422.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target344.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target378.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target393.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/target387.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor349.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor413.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor375.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor361.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block2/distractor407.jpg</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1030,7 +1930,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1038,7 +1938,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1070,7 +1970,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1078,7 +1978,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1094,7 +1994,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1102,7 +2002,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1110,7 +2010,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1118,7 +2018,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1150,7 +2050,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1158,7 +2058,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1166,7 +2066,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1174,7 +2074,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1182,7 +2082,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1190,7 +2090,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1238,7 +2138,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1246,7 +2146,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1254,7 +2154,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1262,7 +2162,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1270,7 +2170,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1326,7 +2226,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1398,7 +2298,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1406,7 +2306,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1414,7 +2314,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1422,7 +2322,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1430,7 +2330,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1438,7 +2338,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1446,7 +2346,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1454,7 +2354,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1462,7 +2362,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1470,7 +2370,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1478,7 +2378,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1486,7 +2386,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1494,7 +2394,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1582,7 +2482,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1590,7 +2490,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1598,7 +2498,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1606,7 +2506,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1646,7 +2546,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1678,7 +2578,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1686,7 +2586,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1694,7 +2594,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1702,7 +2602,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1710,7 +2610,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1734,7 +2634,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1742,7 +2642,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1750,7 +2650,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1758,7 +2658,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1814,7 +2714,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1822,7 +2722,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1830,7 +2730,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1838,7 +2738,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1862,7 +2762,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1870,7 +2770,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1878,7 +2778,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1886,7 +2786,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1894,7 +2794,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1910,7 +2810,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1918,7 +2818,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1926,7 +2826,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1958,7 +2858,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1998,7 +2898,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2006,7 +2906,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2014,7 +2914,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2038,7 +2938,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2046,7 +2946,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2054,7 +2954,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2062,7 +2962,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2070,7 +2970,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2078,7 +2978,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2126,7 +3026,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2190,7 +3090,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2238,7 +3138,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2246,7 +3146,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2366,7 +3266,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2374,7 +3274,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2382,7 +3282,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2390,7 +3290,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2398,7 +3298,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2406,7 +3306,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2414,7 +3314,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2422,7 +3322,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2446,7 +3346,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2454,7 +3354,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2462,7 +3362,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2470,7 +3370,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2478,7 +3378,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2486,7 +3386,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2494,7 +3394,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2502,7 +3402,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2510,7 +3410,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2518,7 +3418,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2526,7 +3426,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2534,7 +3434,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2542,7 +3442,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2550,7 +3450,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2558,7 +3458,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2566,7 +3466,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2574,7 +3474,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2582,6 +3482,2406 @@
         <v>201</v>
       </c>
       <c r="B201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>467</v>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
+        <v>476</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>477</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>478</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>479</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
+        <v>480</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
+        <v>481</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
+        <v>482</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
+        <v>483</v>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
+        <v>484</v>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
+        <v>485</v>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
+        <v>486</v>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>487</v>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
+        <v>488</v>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>489</v>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>490</v>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>491</v>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>492</v>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>493</v>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>494</v>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>495</v>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>496</v>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" t="s">
+        <v>497</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" t="s">
+        <v>498</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" t="s">
+        <v>499</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" t="s">
+        <v>500</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" t="s">
+        <v>501</v>
+      </c>
+      <c r="B501" t="n">
         <v>0</v>
       </c>
     </row>
